--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126486.7793343549</v>
+        <v>-112488.0154893269</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17297070.25717502</v>
+        <v>16628357.41382743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484454</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8763265.838817529</v>
+        <v>8814626.636689913</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.3086748172354</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,10 +665,10 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>329.482156057051</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>30.35244344812144</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>40.13073706139861</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>46.3620404065257</v>
+        <v>29.74512849779529</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1105,22 +1105,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>156.0665348042639</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.3086748172354</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>383.3069684452365</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1145,13 +1145,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.69327784681</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>289.8233017908451</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>145.6160698088846</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.05677735225759</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,22 +1607,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1765,10 +1765,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016037</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>24.62703520777075</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>3.42339212608448</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773008</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430784</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244293</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>144.4937753855493</v>
+        <v>284.0859530482693</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631631176</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773013</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888466</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2372,7 +2372,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561553</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317973</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704926</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967362407</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978614</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225685</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394258</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482739</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2713,25 +2713,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>109.4731500843529</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>28.85560178398636</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>283.057689115606</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>45.61239570677301</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800806</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3430,16 +3430,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>45.61239570677313</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>94.21878984361696</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.5835062384837</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.307979546836</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>431.0976184357249</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
-        <v>428.9839288517128</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1356867533094</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9307845213938</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>285.7857844696409</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.36228653642638</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4134863141168</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.1770111145783</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5377120239368</v>
+        <v>358.9907805655128</v>
       </c>
       <c r="W38" t="n">
-        <v>400.353831501502</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>414.4979702449074</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7501939217681</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4473639902222</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.3830258600323</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.7661443289175</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6073551701951</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.4869149562863</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.4822936828556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>27.0460196719384</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>242.9675834157543</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.1956021978507</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6328845066989</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.8530718279964</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.4847685783467</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.6924054374578</v>
+        <v>2.008513159455106</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.5835062384837</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.307979546836</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.0976184357249</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
-        <v>428.9839288517128</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1356867533094</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9307845213938</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>285.7857844696409</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.36228653642638</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4134863141168</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.1770111145783</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5377120239368</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.353831501502</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.4979702449074</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7501939217681</v>
+        <v>404.2032624633441</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4473639902222</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.3830258600323</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.7661443289175</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6073551701951</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.4869149562863</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.4822936828556</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>27.0460196719389</v>
+        <v>67.42894579208279</v>
       </c>
       <c r="T43" t="n">
-        <v>242.9675834157543</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.1956021978507</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6328845066989</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.8530718279964</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.4847685783467</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.6924054374578</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.5835062384837</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.307979546836</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.0976184357249</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
-        <v>428.9839288517128</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1356867533094</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9307845213938</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H44" t="n">
-        <v>285.7857844696409</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.36228653642638</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4134863141168</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.1770111145783</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5377120239368</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.353831501502</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.4979702449074</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7501939217681</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4473639902222</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.3830258600323</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.7661443289175</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6073551701951</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.4869149562863</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.4822936828556</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>27.04601967193851</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>242.9675834157543</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.1956021978507</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6328845066989</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.8530718279964</v>
+        <v>93.33789293904054</v>
       </c>
       <c r="X46" t="n">
-        <v>242.4847685783467</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.6924054374578</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>974.7482133407309</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>940.6461445645582</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>908.7767637794068</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>475.002018937702</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.13458934690974</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.13458934690974</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.13458934690974</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404975</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>481.9724874269676</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>481.9724874269676</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>481.9724874269676</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>481.9724874269676</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>481.9724874269676</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1060.105262105833</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1638.238036784699</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2166.735933949431</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.822771575526</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.822771575526</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1753.205821509353</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1420.395562865867</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1405.293503485581</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>1401.047783825639</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>552.8895449653426</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>446.4330838019848</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>351.3427949485381</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>257.2223802754918</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>173.8385418916534</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>88.45345215783728</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404975</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>72.78147313450735</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>397.3397981007197</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>975.4725727795853</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>975.4725727795853</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>975.4725727795853</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1592.784783358519</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1709.957561452859</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1646.502123901242</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1516.323480231843</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1339.986933231812</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1140.869415293811</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>955.546661027005</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>800.679225265885</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.1934460451057</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>947.4105542393174</v>
+        <v>566.5477736246753</v>
       </c>
       <c r="C4" t="n">
-        <v>774.8488427225424</v>
+        <v>393.9860621079002</v>
       </c>
       <c r="D4" t="n">
-        <v>608.9708499240651</v>
+        <v>393.9860621079002</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>363.327028321919</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>186.6199742836752</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>186.6199742836752</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>46.71779997404975</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404975</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>133.2974851387396</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>408.0559397098752</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>826.2658214778362</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1285.749688658749</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1400.521080642032</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1820.190329867813</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2167.697223838155</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.472177407859</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.472177407859</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2068.592730986315</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1790.15973023942</v>
       </c>
       <c r="V4" t="n">
-        <v>1656.647332038601</v>
+        <v>1503.20422210985</v>
       </c>
       <c r="W4" t="n">
-        <v>1384.620927624892</v>
+        <v>1231.177817696142</v>
       </c>
       <c r="X4" t="n">
-        <v>1139.229172958305</v>
+        <v>985.7860630295543</v>
       </c>
       <c r="Y4" t="n">
-        <v>1139.229172958305</v>
+        <v>758.3663923436625</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1348.708787519165</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C5" t="n">
-        <v>920.1271132564331</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1391.130783552459</v>
+        <v>2640.01524209022</v>
       </c>
       <c r="W5" t="n">
-        <v>1390.315733003896</v>
+        <v>2235.159787501254</v>
       </c>
       <c r="X5" t="n">
-        <v>1375.213673623611</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y5" t="n">
-        <v>1370.967953963668</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="U7" t="n">
-        <v>1113.00182921349</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1113.00182921349</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1113.00182921349</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1113.00182921349</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.00182921349</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>540.6465844150651</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1781.559247686983</v>
+        <v>1643.994556845862</v>
       </c>
       <c r="C11" t="n">
-        <v>1343.416774870406</v>
+        <v>1643.994556845862</v>
       </c>
       <c r="D11" t="n">
-        <v>1343.416774870406</v>
+        <v>1208.084772020305</v>
       </c>
       <c r="E11" t="n">
-        <v>909.6420300287014</v>
+        <v>774.3100271786004</v>
       </c>
       <c r="F11" t="n">
-        <v>481.774600437909</v>
+        <v>481.559217288858</v>
       </c>
       <c r="G11" t="n">
-        <v>80.37676906117294</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="H11" t="n">
-        <v>80.37676906117294</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="I11" t="n">
-        <v>79.95997968831294</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="J11" t="n">
-        <v>515.2146671412307</v>
+        <v>515.4160733650397</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.564959099409</v>
+        <v>515.4160733650397</v>
       </c>
       <c r="L11" t="n">
-        <v>2339.069707742281</v>
+        <v>1308.422143569424</v>
       </c>
       <c r="M11" t="n">
-        <v>2454.036258870599</v>
+        <v>2300.419294231932</v>
       </c>
       <c r="N11" t="n">
-        <v>2454.036258870599</v>
+        <v>3292.41644489444</v>
       </c>
       <c r="O11" t="n">
-        <v>2454.036258870599</v>
+        <v>3292.41644489444</v>
       </c>
       <c r="P11" t="n">
-        <v>3282.346133703995</v>
+        <v>3292.41644489444</v>
       </c>
       <c r="Q11" t="n">
-        <v>3828.84491966259</v>
+        <v>3838.915230853035</v>
       </c>
       <c r="R11" t="n">
-        <v>3997.998984415647</v>
+        <v>4008.069295606092</v>
       </c>
       <c r="S11" t="n">
-        <v>3997.998984415647</v>
+        <v>3924.417421789929</v>
       </c>
       <c r="T11" t="n">
-        <v>3997.998984415647</v>
+        <v>3924.417421789929</v>
       </c>
       <c r="U11" t="n">
-        <v>3738.776681732664</v>
+        <v>3665.195119106946</v>
       </c>
       <c r="V11" t="n">
-        <v>3376.15973166649</v>
+        <v>3302.578169040772</v>
       </c>
       <c r="W11" t="n">
-        <v>2971.304277077524</v>
+        <v>2897.722714451805</v>
       </c>
       <c r="X11" t="n">
-        <v>2552.161813656835</v>
+        <v>2478.580251031116</v>
       </c>
       <c r="Y11" t="n">
-        <v>2143.875689956488</v>
+        <v>2070.294127330769</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.1317246796058</v>
+        <v>586.3331309034146</v>
       </c>
       <c r="C12" t="n">
-        <v>479.675263516248</v>
+        <v>479.8766697400569</v>
       </c>
       <c r="D12" t="n">
-        <v>384.5849746628013</v>
+        <v>384.7863808866102</v>
       </c>
       <c r="E12" t="n">
-        <v>290.464559989755</v>
+        <v>290.6659662135639</v>
       </c>
       <c r="F12" t="n">
-        <v>207.0807216059166</v>
+        <v>207.2821278297255</v>
       </c>
       <c r="G12" t="n">
-        <v>121.6956318721005</v>
+        <v>121.8970380959094</v>
       </c>
       <c r="H12" t="n">
-        <v>79.95997968831294</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="I12" t="n">
-        <v>106.0236528487706</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="J12" t="n">
-        <v>430.5819778149828</v>
+        <v>404.7197108783342</v>
       </c>
       <c r="K12" t="n">
-        <v>430.5819778149828</v>
+        <v>1085.453230948712</v>
       </c>
       <c r="L12" t="n">
-        <v>1385.125026626087</v>
+        <v>1085.453230948712</v>
       </c>
       <c r="M12" t="n">
-        <v>1385.125026626087</v>
+        <v>1085.453230948712</v>
       </c>
       <c r="N12" t="n">
-        <v>1385.125026626087</v>
+        <v>1085.453230948712</v>
       </c>
       <c r="O12" t="n">
-        <v>1385.125026626087</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="P12" t="n">
-        <v>1385.125026626087</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.026963072782</v>
+        <v>1626.228369296591</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.199741167122</v>
+        <v>1743.401147390931</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.744303615505</v>
+        <v>1679.945709839314</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.565659946107</v>
+        <v>1549.767066169915</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.229112946075</v>
+        <v>1373.430519169884</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.111595008074</v>
+        <v>1174.313001231883</v>
       </c>
       <c r="W12" t="n">
-        <v>988.7888407412681</v>
+        <v>988.9902469650769</v>
       </c>
       <c r="X12" t="n">
-        <v>833.9214049801482</v>
+        <v>834.122811203957</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.4356257593689</v>
+        <v>707.6370319831777</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.4560167652442</v>
+        <v>993.628271549831</v>
       </c>
       <c r="C13" t="n">
-        <v>757.8943052484691</v>
+        <v>821.0665600330559</v>
       </c>
       <c r="D13" t="n">
-        <v>592.0163124499918</v>
+        <v>655.1885672345786</v>
       </c>
       <c r="E13" t="n">
-        <v>422.2583087007291</v>
+        <v>485.4305634853159</v>
       </c>
       <c r="F13" t="n">
-        <v>245.5512546624853</v>
+        <v>308.723509447072</v>
       </c>
       <c r="G13" t="n">
-        <v>79.95997968831294</v>
+        <v>308.723509447072</v>
       </c>
       <c r="H13" t="n">
-        <v>79.95997968831294</v>
+        <v>168.8213351374465</v>
       </c>
       <c r="I13" t="n">
-        <v>79.95997968831294</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="J13" t="n">
-        <v>166.5396648530028</v>
+        <v>166.7410710768117</v>
       </c>
       <c r="K13" t="n">
-        <v>441.2981194241384</v>
+        <v>441.4995256479472</v>
       </c>
       <c r="L13" t="n">
-        <v>859.5080011920994</v>
+        <v>859.7094074159083</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.991868373012</v>
+        <v>1319.193274596821</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.250671530657</v>
+        <v>1761.452077754466</v>
       </c>
       <c r="O13" t="n">
-        <v>2180.919920756438</v>
+        <v>2181.121326980247</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.42681472678</v>
+        <v>2528.628220950589</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.619589591113</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="R13" t="n">
-        <v>2678.380420548428</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="S13" t="n">
-        <v>2678.380420548428</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="T13" t="n">
-        <v>2432.500974126883</v>
+        <v>2450.941549393376</v>
       </c>
       <c r="U13" t="n">
-        <v>2154.067973379988</v>
+        <v>2172.508548646481</v>
       </c>
       <c r="V13" t="n">
-        <v>1867.112465250419</v>
+        <v>1885.553040516912</v>
       </c>
       <c r="W13" t="n">
-        <v>1595.086060836711</v>
+        <v>1613.526636103204</v>
       </c>
       <c r="X13" t="n">
-        <v>1349.694306170123</v>
+        <v>1368.134881436616</v>
       </c>
       <c r="Y13" t="n">
-        <v>1122.274635484231</v>
+        <v>1140.715210750725</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
@@ -5276,28 +5276,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1850.083528321677</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
         <v>5113.042013538981</v>
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937632</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769882</v>
+        <v>639.1929661716208</v>
       </c>
       <c r="D16" t="n">
-        <v>617.7751448769882</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>448.0171411277255</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>271.3100870894817</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>105.7188121153094</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5437,7 +5437,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008509</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127503</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5510,55 +5510,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236976</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681876</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934735</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934735</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
@@ -5595,22 +5595,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477096</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309346</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324573</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831945</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>267.8521152449507</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5707,16 +5707,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832884</v>
+        <v>1748.411126173571</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419176</v>
+        <v>1476.384721759863</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.995166752588</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066697</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,64 +5738,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4584.153287715592</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4584.153287715592</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5820,16 +5820,16 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K21" t="n">
         <v>1107.588885023173</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477105</v>
+        <v>811.754677688395</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774569</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759861</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407382</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
         <v>4550.100609912873</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6057,10 +6057,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
         <v>128.3245134312372</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903942</v>
+        <v>790.3368563937637</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736192</v>
+        <v>617.7751448769886</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751419</v>
+        <v>451.8971520785113</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258791</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0912842876352</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134628</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
         <v>188.8405254354695</v>
@@ -6163,34 +6163,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.652494875569</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795273</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109381</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6239,37 +6239,37 @@
         <v>3895.354312623555</v>
       </c>
       <c r="O26" t="n">
-        <v>4875.533979193861</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P26" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937639</v>
+        <v>949.5782250957674</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769889</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D28" t="n">
-        <v>617.7751448769889</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E28" t="n">
-        <v>448.0171411277261</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>271.3100870894822</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>271.3100870894822</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>131.4079127798568</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798643</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.155475112751</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,19 +6464,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6540,22 +6540,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>832.0502353276424</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>666.172242529165</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1749.449776610605</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1477.423372196897</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1232.031617530309</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1004.611946844417</v>
       </c>
     </row>
     <row r="32">
@@ -6704,19 +6704,19 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4400.966644204577</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6777,7 +6777,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>1057.634124109937</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>885.0724125931615</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>719.1944197946842</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1249.452742828924</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,64 +6923,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771598</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004238</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707801</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707801</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.611132228958</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128815</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013539003</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013539003</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013539003</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013539003</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.39013972284</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595879</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912895</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846722</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257755</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837066</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136719</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,64 +6990,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620728</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987152</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.8858352452684</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722221</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883837</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545676</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707801</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312376</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.88283839745</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528574</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
         <v>1196.412455590541</v>
@@ -7056,10 +7056,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626152</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.736486341836</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903959</v>
+        <v>1057.634124109937</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736209</v>
+        <v>885.0724125931617</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751434</v>
+        <v>719.1944197946844</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258808</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287637</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961047</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961047</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707801</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354699</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066055</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745666</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
         <v>1783.551532113124</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.92045017358</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752035</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.60800300514</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.652494875571</v>
+        <v>1994.290572595112</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795275</v>
+        <v>1476.872413514816</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109383</v>
+        <v>1249.452742828924</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.598126712567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2087.91329888748</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.461159053414</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.144059203199</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.7342746038968</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>390.7940882186506</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H38" t="n">
-        <v>102.1215786533568</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3762661062747</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2581.936540552486</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.116207122793</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4390.426081956189</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4936.924867914783</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.07893266784</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5022.884703843166</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.275121707695</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.510464016202</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.351158941518</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.953349344041</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.268530914842</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.440052205985</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.2933236446496</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8368624812919</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8572308371443</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1852518138144</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.7435767800267</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.477096850404</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1674.21603548248</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.083003945192</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.5972247244127</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.3293907728387</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C40" t="n">
-        <v>778.2253242475535</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D40" t="n">
-        <v>612.8049764405661</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E40" t="n">
-        <v>443.5046176827931</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F40" t="n">
-        <v>267.2552086360392</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G40" t="n">
-        <v>102.1215786533568</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1215786533568</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1498016742059</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.3567941015007</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
-        <v>883.0152137256212</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.947618762693</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.654959776497</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.772746858438</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.728178684939</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.36949140543</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.36949140543</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2695.050279615593</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T40" t="n">
-        <v>2449.628478185538</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2171.653122430133</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1885.155259292054</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.586499869835</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.652390194738</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.690364500336</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.598126712566</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2087.913298887479</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.461159053414</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.144059203199</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.7342746038964</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>390.7940882186504</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H41" t="n">
-        <v>102.1215786533568</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>537.3762661062746</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>2581.936540552485</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3562.116207122792</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4390.426081956188</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4936.924867914782</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.078932667839</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>5022.884703843165</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.275121707693</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.510464016199</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.351158941516</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.953349344039</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.268530914841</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.440052205984</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.2933236446496</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8368624812919</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8572308371443</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1852518138144</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.7435767800267</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.083003945192</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.5972247244127</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.3293907728385</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>778.2253242475533</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>612.8049764405661</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>443.5046176827932</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>267.2552086360392</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.1215786533568</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.1215786533568</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>189.1498016742059</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>464.3567941015005</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>883.0152137256207</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.947618762693</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.654959776497</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.772746858438</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.728178684938</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.36949140543</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2722.36949140543</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2695.050279615593</v>
+        <v>2650.81040391895</v>
       </c>
       <c r="T43" t="n">
-        <v>2449.628478185538</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U43" t="n">
-        <v>2171.653122430133</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V43" t="n">
-        <v>1885.155259292054</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.586499869835</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1368.652390194738</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1141.690364500336</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.598126712566</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2087.913298887479</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.461159053414</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.144059203199</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>791.7342746038967</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>390.7940882186504</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>102.1215786533568</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>102.1215786533568</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>550.2996556162357</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1625.359621869095</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>1625.359621869095</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N44" t="n">
-        <v>2751.090605305542</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3731.270271875848</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4559.580146709244</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>5106.078932667839</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.078932667839</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5022.884703843165</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.275121707694</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.510464016201</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.351158941517</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.95334934404</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.268530914841</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.440052205984</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.2933236446496</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8368624812919</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8572308371443</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1852518138144</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.7435767800267</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.477096850404</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.477096850404</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.477096850404</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.477096850404</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.477096850404</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.477096850404</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1674.21603548248</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.083003945192</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.5972247244127</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.3293907728382</v>
+        <v>1181.319000882662</v>
       </c>
       <c r="C46" t="n">
-        <v>778.2253242475533</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>612.804976440566</v>
+        <v>842.879296567409</v>
       </c>
       <c r="E46" t="n">
-        <v>443.5046176827932</v>
+        <v>673.1212928181462</v>
       </c>
       <c r="F46" t="n">
-        <v>267.2552086360392</v>
+        <v>496.4142387799023</v>
       </c>
       <c r="G46" t="n">
-        <v>102.1215786533568</v>
+        <v>330.82296380573</v>
       </c>
       <c r="H46" t="n">
-        <v>102.1215786533568</v>
+        <v>190.9207894961044</v>
       </c>
       <c r="I46" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>189.1498016742059</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>464.3567941015007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.0152137256209</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.947618762693</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.654959776497</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.772746858437</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.728178684938</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.369491405429</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.369491405429</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.050279615593</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T46" t="n">
-        <v>2449.628478185538</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U46" t="n">
-        <v>2171.653122430133</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V46" t="n">
-        <v>1885.155259292054</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.586499869835</v>
+        <v>1654.130426235141</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.652390194737</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.690364500335</v>
+        <v>1181.319000882662</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>533.8362597623554</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,16 +8058,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756219</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>77.34673934026068</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>239.5100572483141</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>115.9306989730126</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,22 +8690,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>999.499746103912</v>
+        <v>801.0162325296816</v>
       </c>
       <c r="M11" t="n">
-        <v>116.1278294225431</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,16 +8763,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.03656536949870315</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>243.3352893400963</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8942,13 +8942,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.407914635246</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,19 +9407,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>363.3683445154884</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,22 +9717,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9887,13 +9887,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9954,22 +9954,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,22 +10112,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10188,10 +10188,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10352,22 +10352,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>548.405358162976</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10425,10 +10425,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10592,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446341</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>136.5151679143178</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>136.5151679143169</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>452.7051282453322</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63.34329693324872</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>133.7654535040392</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>44.28436272291265</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.146865729424245</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704957</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.0797604404447</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>139.5921776627246</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>139.592177662721</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.5921776627227</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142724</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307146</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168188</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>61.36294431725445</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>58.91774794908505</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.028263932667869</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>122.4480280049971</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>122.448028004997</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>69.71657238081364</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0500840249542</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.32028119149643</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.75057454010685</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>130.1498668014699</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>223.1369608195777</v>
       </c>
     </row>
     <row r="41">
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0500840249542</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.32028119149643</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.75057454010685</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1498668014694</v>
+        <v>90.22000922290052</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0500840249542</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.32028119149643</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.75057454010685</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1498668014698</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>175.9682474305309</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>732645.0056230803</v>
+        <v>745745.328956224</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>732645.0056230803</v>
+        <v>752599.4089153481</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>732645.0056230803</v>
+        <v>752599.4089153481</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651888.8494603324</v>
+        <v>653039.1286404817</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>779254.4052128044</v>
+        <v>779254.4052128046</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>779254.4052128047</v>
+        <v>779254.4052128046</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>779254.4052128049</v>
+        <v>779254.4052128046</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>779475.1990894785</v>
+        <v>779254.4052128047</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>779475.1990894785</v>
+        <v>779254.4052128047</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>779475.1990894785</v>
+        <v>779254.4052128047</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26320,7 @@
         <v>254669.9769479441</v>
       </c>
       <c r="E2" t="n">
-        <v>209353.9368866375</v>
+        <v>209723.3487504581</v>
       </c>
       <c r="F2" t="n">
         <v>250257.3524652424</v>
@@ -26335,7 +26335,7 @@
         <v>250257.3524652424</v>
       </c>
       <c r="J2" t="n">
-        <v>250257.3524652423</v>
+        <v>250257.3524652424</v>
       </c>
       <c r="K2" t="n">
         <v>250257.3524652424</v>
@@ -26347,13 +26347,13 @@
         <v>250257.3524652424</v>
       </c>
       <c r="N2" t="n">
-        <v>250380.4897531825</v>
+        <v>250257.3524652424</v>
       </c>
       <c r="O2" t="n">
-        <v>250380.4897531826</v>
+        <v>250257.3524652425</v>
       </c>
       <c r="P2" t="n">
-        <v>250380.4897531825</v>
+        <v>250257.3524652424</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>195702.6160087934</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26990.19963889415</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>171743.2266455761</v>
+        <v>99874.9731773082</v>
       </c>
       <c r="F3" t="n">
-        <v>79872.20474064809</v>
+        <v>79150.8532446098</v>
       </c>
       <c r="G3" t="n">
-        <v>6.232836132737323e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>152792.9007051284</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21501.21939773548</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143343.1098506405</v>
+        <v>83359.26563805073</v>
       </c>
       <c r="N3" t="n">
-        <v>68212.12920464983</v>
+        <v>67659.41322128722</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>194781.6603085978</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>90613.34940614537</v>
+        <v>90773.23962263207</v>
       </c>
       <c r="F4" t="n">
         <v>108317.3178284629</v>
@@ -26436,7 +26436,7 @@
         <v>108317.3178284629</v>
       </c>
       <c r="I4" t="n">
-        <v>108317.3178284628</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="J4" t="n">
         <v>108317.3178284629</v>
@@ -26448,16 +26448,16 @@
         <v>108317.3178284629</v>
       </c>
       <c r="M4" t="n">
-        <v>108317.3178284623</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="N4" t="n">
-        <v>108662.771150181</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>108662.771150181</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>108662.771150181</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69133.12798027782</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60769.58456311783</v>
+        <v>60922.65329321259</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579284</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77650.48879577282</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>77650.48879577281</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>77650.48879577281</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-165171.3778815573</v>
+        <v>-204947.4273497249</v>
       </c>
       <c r="C6" t="n">
-        <v>-22980.07722184731</v>
+        <v>-29048.72952603547</v>
       </c>
       <c r="D6" t="n">
-        <v>-22980.07722184739</v>
+        <v>-2058.529887141325</v>
       </c>
       <c r="E6" t="n">
-        <v>-113772.2237282018</v>
+        <v>-42084.07854373414</v>
       </c>
       <c r="F6" t="n">
-        <v>-15650.4087096611</v>
+        <v>-14952.28155300548</v>
       </c>
       <c r="G6" t="n">
-        <v>64221.79603098694</v>
+        <v>64198.57169160432</v>
       </c>
       <c r="H6" t="n">
-        <v>64221.796030987</v>
+        <v>64198.57169160432</v>
       </c>
       <c r="I6" t="n">
-        <v>64221.79603098701</v>
+        <v>64198.57169160429</v>
       </c>
       <c r="J6" t="n">
-        <v>-46792.66931400319</v>
+        <v>-88594.32901352411</v>
       </c>
       <c r="K6" t="n">
-        <v>64221.79603098694</v>
+        <v>42697.35229386879</v>
       </c>
       <c r="L6" t="n">
-        <v>64221.79603098694</v>
+        <v>64198.57169160429</v>
       </c>
       <c r="M6" t="n">
-        <v>-79121.31381965324</v>
+        <v>-19160.69394644643</v>
       </c>
       <c r="N6" t="n">
-        <v>-4144.899397421163</v>
+        <v>-3460.841529682822</v>
       </c>
       <c r="O6" t="n">
-        <v>64067.22980722881</v>
+        <v>64198.57169160445</v>
       </c>
       <c r="P6" t="n">
-        <v>64067.22980722875</v>
+        <v>64198.57169160437</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756219</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>999.4997461039118</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384751</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.51973316696</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.51973316696</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.51973316696</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756219</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.54270693223509</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>575.2038885838074</v>
+        <v>334.5021172936659</v>
       </c>
       <c r="F4" t="n">
-        <v>278.7607572808336</v>
+        <v>276.2431794832224</v>
       </c>
       <c r="G4" t="n">
-        <v>2.274052258510069e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>583.9724996756219</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223509</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.2038885838128</v>
+        <v>334.5021172936659</v>
       </c>
       <c r="N4" t="n">
-        <v>277.0199870630427</v>
+        <v>276.2431794832227</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756219</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223509</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.2038885838074</v>
+        <v>334.5021172936659</v>
       </c>
       <c r="N4" t="n">
-        <v>278.7607572808336</v>
+        <v>276.2431794832224</v>
       </c>
       <c r="O4" t="n">
-        <v>2.274052258510069e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,10 +27385,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>71.32474398602596</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>137.7079802636487</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>243.9552159868752</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>312.628740158986</v>
+        <v>329.2456520677164</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>119.5821359351618</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>50.4540796431744</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -28014,22 +28014,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.916515846374476e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.895907565613612e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-7.397906339389606e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>4.479488779907115e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.102764733263626e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-2.614532642252612e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-2.194155968027189e-11</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4530685415749843</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4530685415749843</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4530685415749843</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4530685415749843</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4530685415749843</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4530685415749843</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4530685415749843</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4530685415749843</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4530685415749843</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4530685415749843</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4530685415749843</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4530685415749843</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4530685415749843</v>
+        <v>-1.03913730891415e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4530685415749843</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>533.8362597623554</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,22 +34772,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632082</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756219</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>77.34673934026068</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>239.5100572483141</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>115.9306989730126</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>999.499746103912</v>
+        <v>801.0162325296816</v>
       </c>
       <c r="M11" t="n">
-        <v>116.1278294225431</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.03656536949870315</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>243.3352893400963</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35571,7 +35571,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.407914635246</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35960,10 +35960,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>363.3683445154884</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080445</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36291,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36434,25 +36434,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908061</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36531,10 +36531,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36607,13 +36607,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36674,22 +36674,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36832,22 +36832,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36908,10 +36908,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37072,22 +37072,22 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>548.405358162976</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37145,10 +37145,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446341</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>136.5151679143178</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37622,7 +37622,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.90729598065563</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9868610376716</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8872925496166</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5781869061336</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1791323371756</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3614010928693</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4701331580818</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3447603237287</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>136.5151679143169</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.90729598065565</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9868610376714</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8872925496164</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5781869061341</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1791323371756</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3614010928693</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4701331580814</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3447603237291</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>452.7051282453322</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327045</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.90729598065565</v>
+        <v>87.45422743908061</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9868610376715</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8872925496165</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5781869061336</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1791323371756</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3614010928691</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4701331580818</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3447603237287</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
